--- a/09.Programa de Auditoria/PROGRAMA_AUDI_INTERNA_Grupo1.xlsx
+++ b/09.Programa de Auditoria/PROGRAMA_AUDI_INTERNA_Grupo1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quint\Downloads\CALIDAD\PROYECTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3234960B-433E-40CF-99E1-9C2E683EF1CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24B9F20-19B7-465A-9963-599B84E02E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1. PROGRAMA" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="73">
   <si>
     <t>Código: UPDI-PRG-V1-2024-040</t>
   </si>
@@ -352,9 +352,6 @@
     <t>Clausula</t>
   </si>
   <si>
-    <t>Auditor: Danny Quingaluisa</t>
-  </si>
-  <si>
     <t>Danny Quingaluisa</t>
   </si>
   <si>
@@ -491,6 +488,12 @@
       </rPr>
       <t>Las pruebas basadas en datos y palabras clave con parámetros separados permiten reutilizar secuencias de acciones con diferentes datos, almacenados en tablas o bases de datos, creando así nuevas pruebas.</t>
     </r>
+  </si>
+  <si>
+    <t>Cristian Felix</t>
+  </si>
+  <si>
+    <t>Auditor: Cristian Felix</t>
   </si>
 </sst>
 </file>
@@ -1552,57 +1555,65 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="18" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1615,10 +1626,11 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1658,48 +1670,39 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="10" fontId="18" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2042,7 +2045,7 @@
   </sheetPr>
   <dimension ref="A1:AM994"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A24" zoomScale="64" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="64" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="L52" sqref="L52"/>
     </sheetView>
   </sheetViews>
@@ -2070,26 +2073,26 @@
     </row>
     <row r="2" spans="1:39" ht="42.75" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="95"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="87"/>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="100" t="s">
-        <v>68</v>
+      <c r="B2" s="140"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="104"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="138" t="s">
+        <v>67</v>
       </c>
-      <c r="R2" s="87"/>
-      <c r="S2" s="88"/>
+      <c r="R2" s="104"/>
+      <c r="S2" s="105"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
@@ -2113,26 +2116,26 @@
     </row>
     <row r="3" spans="1:39" ht="48.75" customHeight="1">
       <c r="A3" s="2"/>
-      <c r="B3" s="96"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="100" t="s">
-        <v>68</v>
+      <c r="B3" s="115"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="104"/>
+      <c r="P3" s="105"/>
+      <c r="Q3" s="138" t="s">
+        <v>67</v>
       </c>
-      <c r="R3" s="87"/>
-      <c r="S3" s="88"/>
+      <c r="R3" s="104"/>
+      <c r="S3" s="105"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
@@ -2156,28 +2159,28 @@
     </row>
     <row r="4" spans="1:39" ht="21" customHeight="1">
       <c r="A4" s="2"/>
-      <c r="B4" s="102" t="s">
+      <c r="B4" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="87"/>
-      <c r="O4" s="87"/>
-      <c r="P4" s="88"/>
-      <c r="Q4" s="100" t="s">
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="137"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104"/>
+      <c r="K4" s="104"/>
+      <c r="L4" s="104"/>
+      <c r="M4" s="104"/>
+      <c r="N4" s="104"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="105"/>
+      <c r="Q4" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="R4" s="87"/>
-      <c r="S4" s="88"/>
+      <c r="R4" s="104"/>
+      <c r="S4" s="105"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
@@ -2241,26 +2244,26 @@
       <c r="AM5" s="2"/>
     </row>
     <row r="6" spans="1:39" ht="20.25" customHeight="1">
-      <c r="B6" s="104" t="s">
+      <c r="B6" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="85"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="85"/>
-      <c r="K6" s="85"/>
-      <c r="L6" s="85"/>
-      <c r="M6" s="85"/>
-      <c r="N6" s="85"/>
-      <c r="O6" s="85"/>
-      <c r="P6" s="85"/>
-      <c r="Q6" s="85"/>
-      <c r="R6" s="85"/>
-      <c r="S6" s="85"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="108"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="108"/>
+      <c r="J6" s="108"/>
+      <c r="K6" s="108"/>
+      <c r="L6" s="108"/>
+      <c r="M6" s="108"/>
+      <c r="N6" s="108"/>
+      <c r="O6" s="108"/>
+      <c r="P6" s="108"/>
+      <c r="Q6" s="108"/>
+      <c r="R6" s="108"/>
+      <c r="S6" s="108"/>
       <c r="T6" s="6"/>
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
@@ -2277,26 +2280,26 @@
       <c r="AG6" s="7"/>
     </row>
     <row r="7" spans="1:39" ht="26.25" customHeight="1">
-      <c r="B7" s="105" t="s">
+      <c r="B7" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="85"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="85"/>
-      <c r="I7" s="85"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="85"/>
-      <c r="L7" s="85"/>
-      <c r="M7" s="85"/>
-      <c r="N7" s="85"/>
-      <c r="O7" s="85"/>
-      <c r="P7" s="85"/>
-      <c r="Q7" s="85"/>
-      <c r="R7" s="85"/>
-      <c r="S7" s="85"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="108"/>
+      <c r="N7" s="108"/>
+      <c r="O7" s="108"/>
+      <c r="P7" s="108"/>
+      <c r="Q7" s="108"/>
+      <c r="R7" s="108"/>
+      <c r="S7" s="108"/>
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
@@ -2313,26 +2316,26 @@
       <c r="AG7" s="7"/>
     </row>
     <row r="8" spans="1:39" ht="51" customHeight="1">
-      <c r="B8" s="106" t="s">
+      <c r="B8" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="85"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="85"/>
-      <c r="K8" s="85"/>
-      <c r="L8" s="85"/>
-      <c r="M8" s="85"/>
-      <c r="N8" s="85"/>
-      <c r="O8" s="85"/>
-      <c r="P8" s="85"/>
-      <c r="Q8" s="85"/>
-      <c r="R8" s="85"/>
-      <c r="S8" s="85"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="108"/>
+      <c r="J8" s="108"/>
+      <c r="K8" s="108"/>
+      <c r="L8" s="108"/>
+      <c r="M8" s="108"/>
+      <c r="N8" s="108"/>
+      <c r="O8" s="108"/>
+      <c r="P8" s="108"/>
+      <c r="Q8" s="108"/>
+      <c r="R8" s="108"/>
+      <c r="S8" s="108"/>
       <c r="T8" s="6"/>
       <c r="U8" s="6"/>
       <c r="V8" s="6"/>
@@ -2383,26 +2386,26 @@
       <c r="AG9" s="7"/>
     </row>
     <row r="10" spans="1:39" ht="20.25" customHeight="1">
-      <c r="B10" s="106" t="s">
-        <v>52</v>
+      <c r="B10" s="135" t="s">
+        <v>51</v>
       </c>
-      <c r="C10" s="85"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="85"/>
-      <c r="K10" s="85"/>
-      <c r="L10" s="85"/>
-      <c r="M10" s="85"/>
-      <c r="N10" s="85"/>
-      <c r="O10" s="85"/>
-      <c r="P10" s="85"/>
-      <c r="Q10" s="85"/>
-      <c r="R10" s="85"/>
-      <c r="S10" s="85"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="108"/>
+      <c r="K10" s="108"/>
+      <c r="L10" s="108"/>
+      <c r="M10" s="108"/>
+      <c r="N10" s="108"/>
+      <c r="O10" s="108"/>
+      <c r="P10" s="108"/>
+      <c r="Q10" s="108"/>
+      <c r="R10" s="108"/>
+      <c r="S10" s="108"/>
       <c r="T10" s="6"/>
       <c r="U10" s="6"/>
       <c r="V10" s="6"/>
@@ -2420,26 +2423,26 @@
     </row>
     <row r="11" spans="1:39" ht="60" customHeight="1">
       <c r="A11" s="8"/>
-      <c r="B11" s="105" t="s">
+      <c r="B11" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="85"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="85"/>
-      <c r="M11" s="85"/>
-      <c r="N11" s="85"/>
-      <c r="O11" s="85"/>
-      <c r="P11" s="85"/>
-      <c r="Q11" s="85"/>
-      <c r="R11" s="85"/>
-      <c r="S11" s="85"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="108"/>
+      <c r="E11" s="108"/>
+      <c r="F11" s="108"/>
+      <c r="G11" s="108"/>
+      <c r="H11" s="108"/>
+      <c r="I11" s="108"/>
+      <c r="J11" s="108"/>
+      <c r="K11" s="108"/>
+      <c r="L11" s="108"/>
+      <c r="M11" s="108"/>
+      <c r="N11" s="108"/>
+      <c r="O11" s="108"/>
+      <c r="P11" s="108"/>
+      <c r="Q11" s="108"/>
+      <c r="R11" s="108"/>
+      <c r="S11" s="108"/>
       <c r="T11" s="9"/>
       <c r="U11" s="9"/>
       <c r="V11" s="9"/>
@@ -2462,26 +2465,26 @@
       <c r="AM11" s="8"/>
     </row>
     <row r="12" spans="1:39" ht="20.25" customHeight="1">
-      <c r="B12" s="105" t="s">
+      <c r="B12" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="85"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="85"/>
-      <c r="J12" s="85"/>
-      <c r="K12" s="85"/>
-      <c r="L12" s="85"/>
-      <c r="M12" s="85"/>
-      <c r="N12" s="85"/>
-      <c r="O12" s="85"/>
-      <c r="P12" s="85"/>
-      <c r="Q12" s="85"/>
-      <c r="R12" s="85"/>
-      <c r="S12" s="85"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="108"/>
+      <c r="J12" s="108"/>
+      <c r="K12" s="108"/>
+      <c r="L12" s="108"/>
+      <c r="M12" s="108"/>
+      <c r="N12" s="108"/>
+      <c r="O12" s="108"/>
+      <c r="P12" s="108"/>
+      <c r="Q12" s="108"/>
+      <c r="R12" s="108"/>
+      <c r="S12" s="108"/>
       <c r="T12" s="6"/>
       <c r="U12" s="6"/>
       <c r="V12" s="6"/>
@@ -2498,26 +2501,26 @@
       <c r="AG12" s="7"/>
     </row>
     <row r="13" spans="1:39" ht="20.25" customHeight="1">
-      <c r="B13" s="105" t="s">
+      <c r="B13" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="85"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="85"/>
-      <c r="I13" s="85"/>
-      <c r="J13" s="85"/>
-      <c r="K13" s="85"/>
-      <c r="L13" s="85"/>
-      <c r="M13" s="85"/>
-      <c r="N13" s="85"/>
-      <c r="O13" s="85"/>
-      <c r="P13" s="85"/>
-      <c r="Q13" s="85"/>
-      <c r="R13" s="85"/>
-      <c r="S13" s="85"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="108"/>
+      <c r="F13" s="108"/>
+      <c r="G13" s="108"/>
+      <c r="H13" s="108"/>
+      <c r="I13" s="108"/>
+      <c r="J13" s="108"/>
+      <c r="K13" s="108"/>
+      <c r="L13" s="108"/>
+      <c r="M13" s="108"/>
+      <c r="N13" s="108"/>
+      <c r="O13" s="108"/>
+      <c r="P13" s="108"/>
+      <c r="Q13" s="108"/>
+      <c r="R13" s="108"/>
+      <c r="S13" s="108"/>
       <c r="T13" s="6"/>
       <c r="U13" s="6"/>
       <c r="V13" s="6"/>
@@ -2568,26 +2571,26 @@
       <c r="AG14" s="7"/>
     </row>
     <row r="15" spans="1:39" ht="24.75" customHeight="1">
-      <c r="B15" s="107" t="s">
+      <c r="B15" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="85"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="85"/>
-      <c r="I15" s="85"/>
-      <c r="J15" s="85"/>
-      <c r="K15" s="85"/>
-      <c r="L15" s="85"/>
-      <c r="M15" s="85"/>
-      <c r="N15" s="85"/>
-      <c r="O15" s="85"/>
-      <c r="P15" s="85"/>
-      <c r="Q15" s="85"/>
-      <c r="R15" s="85"/>
-      <c r="S15" s="85"/>
+      <c r="C15" s="108"/>
+      <c r="D15" s="108"/>
+      <c r="E15" s="108"/>
+      <c r="F15" s="108"/>
+      <c r="G15" s="108"/>
+      <c r="H15" s="108"/>
+      <c r="I15" s="108"/>
+      <c r="J15" s="108"/>
+      <c r="K15" s="108"/>
+      <c r="L15" s="108"/>
+      <c r="M15" s="108"/>
+      <c r="N15" s="108"/>
+      <c r="O15" s="108"/>
+      <c r="P15" s="108"/>
+      <c r="Q15" s="108"/>
+      <c r="R15" s="108"/>
+      <c r="S15" s="108"/>
       <c r="T15" s="6"/>
       <c r="U15" s="6"/>
       <c r="V15" s="6"/>
@@ -2605,26 +2608,26 @@
     </row>
     <row r="16" spans="1:39" ht="24.75" customHeight="1">
       <c r="A16" s="2"/>
-      <c r="B16" s="108" t="s">
+      <c r="B16" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="85"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="85"/>
-      <c r="F16" s="85"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="85"/>
-      <c r="I16" s="85"/>
-      <c r="J16" s="85"/>
-      <c r="K16" s="85"/>
-      <c r="L16" s="85"/>
-      <c r="M16" s="85"/>
-      <c r="N16" s="85"/>
-      <c r="O16" s="85"/>
-      <c r="P16" s="85"/>
-      <c r="Q16" s="85"/>
-      <c r="R16" s="85"/>
-      <c r="S16" s="85"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="108"/>
+      <c r="G16" s="108"/>
+      <c r="H16" s="108"/>
+      <c r="I16" s="108"/>
+      <c r="J16" s="108"/>
+      <c r="K16" s="108"/>
+      <c r="L16" s="108"/>
+      <c r="M16" s="108"/>
+      <c r="N16" s="108"/>
+      <c r="O16" s="108"/>
+      <c r="P16" s="108"/>
+      <c r="Q16" s="108"/>
+      <c r="R16" s="108"/>
+      <c r="S16" s="108"/>
       <c r="T16" s="12"/>
       <c r="U16" s="12"/>
       <c r="V16" s="12"/>
@@ -2647,26 +2650,26 @@
       <c r="AM16" s="2"/>
     </row>
     <row r="17" spans="1:39" ht="24.75" customHeight="1">
-      <c r="B17" s="107" t="s">
+      <c r="B17" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="85"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="85"/>
-      <c r="I17" s="85"/>
-      <c r="J17" s="85"/>
-      <c r="K17" s="85"/>
-      <c r="L17" s="85"/>
-      <c r="M17" s="85"/>
-      <c r="N17" s="85"/>
-      <c r="O17" s="85"/>
-      <c r="P17" s="85"/>
-      <c r="Q17" s="85"/>
-      <c r="R17" s="85"/>
-      <c r="S17" s="85"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="108"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="108"/>
+      <c r="G17" s="108"/>
+      <c r="H17" s="108"/>
+      <c r="I17" s="108"/>
+      <c r="J17" s="108"/>
+      <c r="K17" s="108"/>
+      <c r="L17" s="108"/>
+      <c r="M17" s="108"/>
+      <c r="N17" s="108"/>
+      <c r="O17" s="108"/>
+      <c r="P17" s="108"/>
+      <c r="Q17" s="108"/>
+      <c r="R17" s="108"/>
+      <c r="S17" s="108"/>
       <c r="T17" s="6"/>
       <c r="U17" s="6"/>
       <c r="V17" s="6"/>
@@ -2683,24 +2686,24 @@
       <c r="AG17" s="7"/>
     </row>
     <row r="18" spans="1:39" ht="6.75" customHeight="1" thickBot="1">
-      <c r="B18" s="107"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="85"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="85"/>
-      <c r="I18" s="85"/>
-      <c r="J18" s="85"/>
-      <c r="K18" s="85"/>
-      <c r="L18" s="85"/>
-      <c r="M18" s="85"/>
-      <c r="N18" s="85"/>
-      <c r="O18" s="85"/>
-      <c r="P18" s="85"/>
-      <c r="Q18" s="85"/>
-      <c r="R18" s="85"/>
-      <c r="S18" s="85"/>
+      <c r="B18" s="109"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="108"/>
+      <c r="F18" s="108"/>
+      <c r="G18" s="108"/>
+      <c r="H18" s="108"/>
+      <c r="I18" s="108"/>
+      <c r="J18" s="108"/>
+      <c r="K18" s="108"/>
+      <c r="L18" s="108"/>
+      <c r="M18" s="108"/>
+      <c r="N18" s="108"/>
+      <c r="O18" s="108"/>
+      <c r="P18" s="108"/>
+      <c r="Q18" s="108"/>
+      <c r="R18" s="108"/>
+      <c r="S18" s="108"/>
       <c r="T18" s="6"/>
       <c r="U18" s="6"/>
       <c r="V18" s="6"/>
@@ -2718,36 +2721,36 @@
     </row>
     <row r="19" spans="1:39" ht="10.5" customHeight="1">
       <c r="A19" s="14"/>
-      <c r="B19" s="122" t="s">
+      <c r="B19" s="125" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="125" t="s">
+      <c r="C19" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="111"/>
-      <c r="E19" s="112"/>
-      <c r="F19" s="126" t="s">
+      <c r="D19" s="89"/>
+      <c r="E19" s="113"/>
+      <c r="F19" s="129" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="109" t="s">
-        <v>53</v>
+      <c r="G19" s="111" t="s">
+        <v>52</v>
       </c>
-      <c r="H19" s="109"/>
-      <c r="I19" s="109"/>
-      <c r="J19" s="109"/>
-      <c r="K19" s="136" t="s">
-        <v>59</v>
+      <c r="H19" s="111"/>
+      <c r="I19" s="111"/>
+      <c r="J19" s="111"/>
+      <c r="K19" s="88" t="s">
+        <v>58</v>
       </c>
-      <c r="L19" s="111"/>
-      <c r="M19" s="111"/>
-      <c r="N19" s="111"/>
-      <c r="O19" s="110" t="s">
+      <c r="L19" s="89"/>
+      <c r="M19" s="89"/>
+      <c r="N19" s="89"/>
+      <c r="O19" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="P19" s="111"/>
-      <c r="Q19" s="111"/>
-      <c r="R19" s="112"/>
-      <c r="S19" s="129" t="s">
+      <c r="P19" s="89"/>
+      <c r="Q19" s="89"/>
+      <c r="R19" s="113"/>
+      <c r="S19" s="132" t="s">
         <v>15</v>
       </c>
       <c r="T19" s="14"/>
@@ -2773,24 +2776,24 @@
     </row>
     <row r="20" spans="1:39" ht="10.5" customHeight="1">
       <c r="A20" s="14"/>
-      <c r="B20" s="123"/>
-      <c r="C20" s="113"/>
-      <c r="D20" s="85"/>
+      <c r="B20" s="126"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="108"/>
       <c r="E20" s="114"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="109"/>
-      <c r="H20" s="109"/>
-      <c r="I20" s="109"/>
-      <c r="J20" s="109"/>
-      <c r="K20" s="113"/>
-      <c r="L20" s="137"/>
-      <c r="M20" s="137"/>
-      <c r="N20" s="137"/>
-      <c r="O20" s="113"/>
-      <c r="P20" s="85"/>
-      <c r="Q20" s="85"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="111"/>
+      <c r="H20" s="111"/>
+      <c r="I20" s="111"/>
+      <c r="J20" s="111"/>
+      <c r="K20" s="90"/>
+      <c r="L20" s="91"/>
+      <c r="M20" s="91"/>
+      <c r="N20" s="91"/>
+      <c r="O20" s="90"/>
+      <c r="P20" s="108"/>
+      <c r="Q20" s="108"/>
       <c r="R20" s="114"/>
-      <c r="S20" s="130"/>
+      <c r="S20" s="133"/>
       <c r="T20" s="14"/>
       <c r="U20" s="14"/>
       <c r="V20" s="14"/>
@@ -2814,32 +2817,32 @@
     </row>
     <row r="21" spans="1:39" ht="34.5" customHeight="1">
       <c r="A21" s="15"/>
-      <c r="B21" s="123"/>
-      <c r="C21" s="113"/>
-      <c r="D21" s="85"/>
+      <c r="B21" s="126"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="108"/>
       <c r="E21" s="114"/>
-      <c r="F21" s="127"/>
-      <c r="G21" s="115" t="s">
+      <c r="F21" s="130"/>
+      <c r="G21" s="118" t="s">
         <v>16</v>
       </c>
-      <c r="H21" s="116"/>
-      <c r="I21" s="115" t="s">
+      <c r="H21" s="119"/>
+      <c r="I21" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="J21" s="117"/>
-      <c r="K21" s="118" t="s">
+      <c r="J21" s="120"/>
+      <c r="K21" s="121" t="s">
         <v>16</v>
       </c>
-      <c r="L21" s="119"/>
-      <c r="M21" s="120" t="s">
+      <c r="L21" s="122"/>
+      <c r="M21" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="N21" s="121"/>
-      <c r="O21" s="96"/>
-      <c r="P21" s="97"/>
-      <c r="Q21" s="97"/>
-      <c r="R21" s="98"/>
-      <c r="S21" s="130"/>
+      <c r="N21" s="124"/>
+      <c r="O21" s="115"/>
+      <c r="P21" s="116"/>
+      <c r="Q21" s="116"/>
+      <c r="R21" s="117"/>
+      <c r="S21" s="133"/>
       <c r="T21" s="15"/>
       <c r="U21" s="15"/>
       <c r="V21" s="15"/>
@@ -2863,40 +2866,40 @@
     </row>
     <row r="22" spans="1:39" ht="38.25" customHeight="1">
       <c r="A22" s="14"/>
-      <c r="B22" s="124"/>
-      <c r="C22" s="96"/>
-      <c r="D22" s="97"/>
-      <c r="E22" s="98"/>
-      <c r="F22" s="128"/>
+      <c r="B22" s="127"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="131"/>
       <c r="G22" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="H22" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="H22" s="16" t="s">
+      <c r="I22" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="I22" s="16" t="s">
+      <c r="J22" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="J22" s="16" t="s">
+      <c r="K22" s="82" t="s">
         <v>57</v>
-      </c>
-      <c r="K22" s="82" t="s">
-        <v>58</v>
       </c>
       <c r="L22" s="82" t="s">
         <v>18</v>
       </c>
       <c r="M22" s="82" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N22" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="O22" s="138"/>
-      <c r="P22" s="139"/>
-      <c r="Q22" s="139"/>
-      <c r="R22" s="140"/>
-      <c r="S22" s="131"/>
+      <c r="O22" s="92"/>
+      <c r="P22" s="93"/>
+      <c r="Q22" s="93"/>
+      <c r="R22" s="94"/>
+      <c r="S22" s="134"/>
       <c r="T22" s="14"/>
       <c r="U22" s="14"/>
       <c r="V22" s="14"/>
@@ -2923,11 +2926,11 @@
       <c r="B23" s="18">
         <v>1</v>
       </c>
-      <c r="C23" s="141" t="s">
+      <c r="C23" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="142"/>
-      <c r="E23" s="143"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="97"/>
       <c r="F23" s="70">
         <v>1</v>
       </c>
@@ -2941,14 +2944,14 @@
       <c r="L23" s="21"/>
       <c r="M23" s="21"/>
       <c r="N23" s="21"/>
-      <c r="O23" s="86" t="s">
-        <v>63</v>
+      <c r="O23" s="98" t="s">
+        <v>62</v>
       </c>
-      <c r="P23" s="144"/>
-      <c r="Q23" s="144"/>
-      <c r="R23" s="145"/>
+      <c r="P23" s="99"/>
+      <c r="Q23" s="99"/>
+      <c r="R23" s="100"/>
       <c r="S23" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T23" s="17"/>
       <c r="U23" s="17"/>
@@ -2976,11 +2979,11 @@
       <c r="B24" s="18">
         <v>2</v>
       </c>
-      <c r="C24" s="92" t="s">
+      <c r="C24" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="93"/>
-      <c r="E24" s="94"/>
+      <c r="D24" s="102"/>
+      <c r="E24" s="103"/>
       <c r="F24" s="70">
         <v>2</v>
       </c>
@@ -2994,14 +2997,14 @@
       <c r="L24" s="21"/>
       <c r="M24" s="21"/>
       <c r="N24" s="21"/>
-      <c r="O24" s="86" t="s">
-        <v>64</v>
+      <c r="O24" s="98" t="s">
+        <v>63</v>
       </c>
-      <c r="P24" s="87"/>
-      <c r="Q24" s="87"/>
-      <c r="R24" s="88"/>
+      <c r="P24" s="104"/>
+      <c r="Q24" s="104"/>
+      <c r="R24" s="105"/>
       <c r="S24" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T24" s="17"/>
       <c r="U24" s="17"/>
@@ -3029,11 +3032,11 @@
       <c r="B25" s="18">
         <v>3</v>
       </c>
-      <c r="C25" s="92" t="s">
+      <c r="C25" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="93"/>
-      <c r="E25" s="94"/>
+      <c r="D25" s="102"/>
+      <c r="E25" s="103"/>
       <c r="F25" s="70">
         <v>3</v>
       </c>
@@ -3047,14 +3050,14 @@
       <c r="L25" s="24"/>
       <c r="M25" s="24"/>
       <c r="N25" s="24"/>
-      <c r="O25" s="86" t="s">
-        <v>65</v>
+      <c r="O25" s="98" t="s">
+        <v>64</v>
       </c>
-      <c r="P25" s="87"/>
-      <c r="Q25" s="87"/>
-      <c r="R25" s="88"/>
+      <c r="P25" s="104"/>
+      <c r="Q25" s="104"/>
+      <c r="R25" s="105"/>
       <c r="S25" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T25" s="17"/>
       <c r="U25" s="17"/>
@@ -3082,11 +3085,11 @@
       <c r="B26" s="18">
         <v>4</v>
       </c>
-      <c r="C26" s="92" t="s">
+      <c r="C26" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="93"/>
-      <c r="E26" s="94"/>
+      <c r="D26" s="102"/>
+      <c r="E26" s="103"/>
       <c r="F26" s="70">
         <v>4</v>
       </c>
@@ -3100,14 +3103,14 @@
       <c r="L26" s="21"/>
       <c r="M26" s="21"/>
       <c r="N26" s="21"/>
-      <c r="O26" s="86" t="s">
-        <v>66</v>
+      <c r="O26" s="98" t="s">
+        <v>65</v>
       </c>
-      <c r="P26" s="87"/>
-      <c r="Q26" s="87"/>
-      <c r="R26" s="88"/>
+      <c r="P26" s="104"/>
+      <c r="Q26" s="104"/>
+      <c r="R26" s="105"/>
       <c r="S26" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T26" s="17"/>
       <c r="U26" s="17"/>
@@ -3135,11 +3138,11 @@
       <c r="B27" s="18">
         <v>5</v>
       </c>
-      <c r="C27" s="92" t="s">
+      <c r="C27" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="93"/>
-      <c r="E27" s="94"/>
+      <c r="D27" s="102"/>
+      <c r="E27" s="103"/>
       <c r="F27" s="76">
         <v>5</v>
       </c>
@@ -3153,14 +3156,14 @@
       </c>
       <c r="M27" s="21"/>
       <c r="N27" s="21"/>
-      <c r="O27" s="86" t="s">
-        <v>67</v>
+      <c r="O27" s="98" t="s">
+        <v>66</v>
       </c>
-      <c r="P27" s="87"/>
-      <c r="Q27" s="87"/>
-      <c r="R27" s="88"/>
+      <c r="P27" s="104"/>
+      <c r="Q27" s="104"/>
+      <c r="R27" s="105"/>
       <c r="S27" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T27" s="17"/>
       <c r="U27" s="17"/>
@@ -3186,9 +3189,9 @@
     <row r="28" spans="1:39" ht="163.5" customHeight="1">
       <c r="A28" s="17"/>
       <c r="B28" s="18"/>
-      <c r="C28" s="92"/>
-      <c r="D28" s="93"/>
-      <c r="E28" s="94"/>
+      <c r="C28" s="101"/>
+      <c r="D28" s="102"/>
+      <c r="E28" s="103"/>
       <c r="F28" s="77"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -3198,12 +3201,12 @@
       <c r="L28" s="24"/>
       <c r="M28" s="24"/>
       <c r="N28" s="24"/>
-      <c r="O28" s="86" t="s">
+      <c r="O28" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="P28" s="87"/>
-      <c r="Q28" s="87"/>
-      <c r="R28" s="88"/>
+      <c r="P28" s="104"/>
+      <c r="Q28" s="104"/>
+      <c r="R28" s="105"/>
       <c r="S28" s="22"/>
       <c r="T28" s="17"/>
       <c r="U28" s="17"/>
@@ -3229,9 +3232,9 @@
     <row r="29" spans="1:39" ht="209.25" customHeight="1">
       <c r="A29" s="17"/>
       <c r="B29" s="18"/>
-      <c r="C29" s="92"/>
-      <c r="D29" s="93"/>
-      <c r="E29" s="94"/>
+      <c r="C29" s="101"/>
+      <c r="D29" s="102"/>
+      <c r="E29" s="103"/>
       <c r="F29" s="19"/>
       <c r="G29" s="21"/>
       <c r="H29" s="21"/>
@@ -3241,10 +3244,10 @@
       <c r="L29" s="21"/>
       <c r="M29" s="21"/>
       <c r="N29" s="21"/>
-      <c r="O29" s="86"/>
-      <c r="P29" s="87"/>
-      <c r="Q29" s="87"/>
-      <c r="R29" s="88"/>
+      <c r="O29" s="98"/>
+      <c r="P29" s="104"/>
+      <c r="Q29" s="104"/>
+      <c r="R29" s="105"/>
       <c r="S29" s="22"/>
       <c r="T29" s="17"/>
       <c r="U29" s="17"/>
@@ -3270,9 +3273,9 @@
     <row r="30" spans="1:39" ht="262.5" customHeight="1">
       <c r="A30" s="17"/>
       <c r="B30" s="18"/>
-      <c r="C30" s="92"/>
-      <c r="D30" s="93"/>
-      <c r="E30" s="94"/>
+      <c r="C30" s="101"/>
+      <c r="D30" s="102"/>
+      <c r="E30" s="103"/>
       <c r="F30" s="19"/>
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
@@ -3282,10 +3285,10 @@
       <c r="L30" s="21"/>
       <c r="M30" s="21"/>
       <c r="N30" s="21"/>
-      <c r="O30" s="86"/>
-      <c r="P30" s="87"/>
-      <c r="Q30" s="87"/>
-      <c r="R30" s="88"/>
+      <c r="O30" s="98"/>
+      <c r="P30" s="104"/>
+      <c r="Q30" s="104"/>
+      <c r="R30" s="105"/>
       <c r="S30" s="22"/>
       <c r="T30" s="17"/>
       <c r="U30" s="17"/>
@@ -3311,9 +3314,9 @@
     <row r="31" spans="1:39" ht="90.75" customHeight="1">
       <c r="A31" s="17"/>
       <c r="B31" s="18"/>
-      <c r="C31" s="146"/>
-      <c r="D31" s="93"/>
-      <c r="E31" s="94"/>
+      <c r="C31" s="106"/>
+      <c r="D31" s="102"/>
+      <c r="E31" s="103"/>
       <c r="F31" s="19"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -3323,10 +3326,10 @@
       <c r="L31" s="21"/>
       <c r="M31" s="21"/>
       <c r="N31" s="21"/>
-      <c r="O31" s="89"/>
-      <c r="P31" s="87"/>
-      <c r="Q31" s="87"/>
-      <c r="R31" s="88"/>
+      <c r="O31" s="144"/>
+      <c r="P31" s="104"/>
+      <c r="Q31" s="104"/>
+      <c r="R31" s="105"/>
       <c r="S31" s="22"/>
       <c r="T31" s="17"/>
       <c r="U31" s="17"/>
@@ -3352,9 +3355,9 @@
     <row r="32" spans="1:39" ht="90.75" customHeight="1">
       <c r="A32" s="17"/>
       <c r="B32" s="18"/>
-      <c r="C32" s="91"/>
-      <c r="D32" s="87"/>
-      <c r="E32" s="88"/>
+      <c r="C32" s="143"/>
+      <c r="D32" s="104"/>
+      <c r="E32" s="105"/>
       <c r="F32" s="19"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -3364,10 +3367,10 @@
       <c r="L32" s="21"/>
       <c r="M32" s="21"/>
       <c r="N32" s="21"/>
-      <c r="O32" s="89"/>
-      <c r="P32" s="87"/>
-      <c r="Q32" s="87"/>
-      <c r="R32" s="88"/>
+      <c r="O32" s="144"/>
+      <c r="P32" s="104"/>
+      <c r="Q32" s="104"/>
+      <c r="R32" s="105"/>
       <c r="S32" s="22"/>
       <c r="T32" s="17"/>
       <c r="U32" s="17"/>
@@ -3405,10 +3408,10 @@
       <c r="L33" s="80"/>
       <c r="M33" s="80"/>
       <c r="N33" s="80"/>
-      <c r="O33" s="90"/>
-      <c r="P33" s="85"/>
-      <c r="Q33" s="85"/>
-      <c r="R33" s="85"/>
+      <c r="O33" s="146"/>
+      <c r="P33" s="108"/>
+      <c r="Q33" s="108"/>
+      <c r="R33" s="108"/>
       <c r="S33" s="29"/>
     </row>
     <row r="34" spans="1:20" ht="12.75" customHeight="1">
@@ -3426,10 +3429,10 @@
       <c r="L34" s="31"/>
       <c r="M34" s="31"/>
       <c r="N34" s="31"/>
-      <c r="O34" s="90"/>
-      <c r="P34" s="85"/>
-      <c r="Q34" s="85"/>
-      <c r="R34" s="85"/>
+      <c r="O34" s="146"/>
+      <c r="P34" s="108"/>
+      <c r="Q34" s="108"/>
+      <c r="R34" s="108"/>
       <c r="S34" s="29"/>
     </row>
     <row r="35" spans="1:20" ht="19.5" customHeight="1">
@@ -3449,10 +3452,10 @@
       <c r="L35" s="17"/>
       <c r="M35" s="17"/>
       <c r="N35" s="17"/>
-      <c r="O35" s="84"/>
-      <c r="P35" s="85"/>
-      <c r="Q35" s="85"/>
-      <c r="R35" s="85"/>
+      <c r="O35" s="145"/>
+      <c r="P35" s="108"/>
+      <c r="Q35" s="108"/>
+      <c r="R35" s="108"/>
       <c r="S35" s="25"/>
     </row>
     <row r="36" spans="1:20" ht="18.75" customHeight="1">
@@ -3538,25 +3541,25 @@
     <row r="40" spans="1:20" ht="39.75" customHeight="1">
       <c r="A40" s="25"/>
       <c r="B40" s="26"/>
-      <c r="C40" s="134" t="s">
+      <c r="C40" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="D40" s="134"/>
-      <c r="E40" s="134"/>
-      <c r="F40" s="134"/>
-      <c r="G40" s="134"/>
-      <c r="H40" s="134"/>
-      <c r="I40" s="134"/>
-      <c r="J40" s="134"/>
-      <c r="K40" s="134"/>
-      <c r="L40" s="134"/>
-      <c r="M40" s="134"/>
-      <c r="N40" s="134"/>
-      <c r="O40" s="134"/>
-      <c r="P40" s="134"/>
-      <c r="Q40" s="134"/>
-      <c r="R40" s="134"/>
-      <c r="S40" s="135"/>
+      <c r="D40" s="86"/>
+      <c r="E40" s="86"/>
+      <c r="F40" s="86"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="86"/>
+      <c r="I40" s="86"/>
+      <c r="J40" s="86"/>
+      <c r="K40" s="86"/>
+      <c r="L40" s="86"/>
+      <c r="M40" s="86"/>
+      <c r="N40" s="86"/>
+      <c r="O40" s="86"/>
+      <c r="P40" s="86"/>
+      <c r="Q40" s="86"/>
+      <c r="R40" s="86"/>
+      <c r="S40" s="87"/>
     </row>
     <row r="41" spans="1:20" ht="11.25" customHeight="1" thickBot="1">
       <c r="A41" s="25"/>
@@ -3617,14 +3620,14 @@
       <c r="C46" s="51"/>
     </row>
     <row r="47" spans="1:20" ht="15" customHeight="1">
-      <c r="B47" s="133" t="s">
+      <c r="B47" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="133"/>
-      <c r="D47" s="133"/>
-      <c r="E47" s="133"/>
-      <c r="F47" s="133"/>
-      <c r="G47" s="133"/>
+      <c r="C47" s="85"/>
+      <c r="D47" s="85"/>
+      <c r="E47" s="85"/>
+      <c r="F47" s="85"/>
+      <c r="G47" s="85"/>
       <c r="J47" s="17"/>
       <c r="K47" s="17"/>
       <c r="L47" s="17"/>
@@ -3640,13 +3643,13 @@
       <c r="C50" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="D50" s="132">
+      <c r="D50" s="84">
         <v>45663</v>
       </c>
-      <c r="E50" s="132"/>
-      <c r="F50" s="132"/>
-      <c r="G50" s="132"/>
-      <c r="H50" s="132"/>
+      <c r="E50" s="84"/>
+      <c r="F50" s="84"/>
+      <c r="G50" s="84"/>
+      <c r="H50" s="84"/>
       <c r="J50" s="54"/>
       <c r="K50" s="54"/>
       <c r="L50" s="54"/>
@@ -28617,6 +28620,50 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="G2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="G3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="B6:S6"/>
+    <mergeCell ref="B7:S7"/>
+    <mergeCell ref="B8:S8"/>
+    <mergeCell ref="B10:S10"/>
+    <mergeCell ref="B11:S11"/>
+    <mergeCell ref="B12:S12"/>
+    <mergeCell ref="B13:S13"/>
+    <mergeCell ref="B15:S15"/>
+    <mergeCell ref="B16:S16"/>
+    <mergeCell ref="B17:S17"/>
+    <mergeCell ref="G19:J20"/>
+    <mergeCell ref="O19:R21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="B18:S18"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:E22"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="S19:S22"/>
     <mergeCell ref="D50:H50"/>
     <mergeCell ref="B47:G47"/>
     <mergeCell ref="C40:S40"/>
@@ -28633,50 +28680,6 @@
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="C30:E30"/>
     <mergeCell ref="C31:E31"/>
-    <mergeCell ref="B13:S13"/>
-    <mergeCell ref="B15:S15"/>
-    <mergeCell ref="B16:S16"/>
-    <mergeCell ref="B17:S17"/>
-    <mergeCell ref="G19:J20"/>
-    <mergeCell ref="O19:R21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="B18:S18"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:E22"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="S19:S22"/>
-    <mergeCell ref="B7:S7"/>
-    <mergeCell ref="B8:S8"/>
-    <mergeCell ref="B10:S10"/>
-    <mergeCell ref="B11:S11"/>
-    <mergeCell ref="B12:S12"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="G4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="B6:S6"/>
-    <mergeCell ref="B2:F3"/>
-    <mergeCell ref="G2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="G3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="O29:R29"/>
   </mergeCells>
   <phoneticPr fontId="40" type="noConversion"/>
   <conditionalFormatting sqref="F49:G49">
@@ -28707,8 +28710,8 @@
   </sheetPr>
   <dimension ref="A2:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -28723,52 +28726,52 @@
       <c r="A2" s="147" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
       <c r="H2" s="148"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="A3" s="149"/>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
       <c r="H3" s="150"/>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1">
       <c r="A4" s="149"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="108"/>
       <c r="H4" s="150"/>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1">
       <c r="A5" s="149"/>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="108"/>
       <c r="H5" s="150"/>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1">
       <c r="A6" s="149"/>
-      <c r="B6" s="85"/>
-      <c r="C6" s="85"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="108"/>
       <c r="H6" s="150"/>
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1">
@@ -28826,12 +28829,12 @@
         <v>45663</v>
       </c>
       <c r="F11" s="55"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85"/>
+      <c r="G11" s="108"/>
+      <c r="H11" s="108"/>
     </row>
     <row r="12" spans="1:8" ht="15" customHeight="1">
       <c r="A12" s="55" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="B12" s="55"/>
       <c r="C12" s="55"/>
@@ -28891,20 +28894,20 @@
         <v>45</v>
       </c>
       <c r="E15" s="71" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F15" s="83" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G15" s="81" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="H15" s="72" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="141.75" customHeight="1">
-      <c r="A16" s="127"/>
+      <c r="A16" s="130"/>
       <c r="B16" s="68">
         <v>45664</v>
       </c>
@@ -28915,13 +28918,13 @@
         <v>45</v>
       </c>
       <c r="E16" s="71" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F16" s="83" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G16" s="81" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="H16" s="73" t="s">
         <v>47</v>
@@ -28939,13 +28942,13 @@
         <v>45</v>
       </c>
       <c r="E17" s="71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F17" s="83" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G17" s="81" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="H17" s="74" t="s">
         <v>48</v>
@@ -28973,6 +28976,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="f1f31ffb-9912-4459-99c8-b26e82094b51" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100EDB39E34F5A9B445B025C05B2A05D030" ma:contentTypeVersion="9" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="c21ef800502b5dc1190a9a0361733939">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f1f31ffb-9912-4459-99c8-b26e82094b51" xmlns:ns4="ce621958-37b1-43fe-a1f1-1aad67996a88" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="30daf50bb6192471b76b9808b4256f50" ns3:_="" ns4:_="">
     <xsd:import namespace="f1f31ffb-9912-4459-99c8-b26e82094b51"/>
@@ -29167,14 +29178,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="f1f31ffb-9912-4459-99c8-b26e82094b51" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -29185,6 +29188,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0679DBA9-5627-44A3-91B7-DABD2A2D7C98}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="f1f31ffb-9912-4459-99c8-b26e82094b51"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="ce621958-37b1-43fe-a1f1-1aad67996a88"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D01A9D5D-1824-48C2-8527-9D8749A8DDDB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -29203,23 +29223,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0679DBA9-5627-44A3-91B7-DABD2A2D7C98}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="f1f31ffb-9912-4459-99c8-b26e82094b51"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="ce621958-37b1-43fe-a1f1-1aad67996a88"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96490F3C-DFF7-4107-BF06-5DD550949EBD}">
   <ds:schemaRefs>
